--- a/数据库表格.xlsx
+++ b/数据库表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11435" windowHeight="5904"/>
+    <workbookView windowWidth="22176" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,36 +29,234 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>用户</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+  <si>
+    <t>用户 登录成功</t>
+  </si>
+  <si>
+    <t>角色-权限表</t>
+  </si>
+  <si>
+    <t>权限</t>
+  </si>
+  <si>
+    <t>id（默认）</t>
+  </si>
+  <si>
+    <t>aid</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>cid</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>厨师/前端</t>
+  </si>
+  <si>
+    <t>全部数据</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>null(前端路由)</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>树的级别</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>updateTime</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>roleName:[]</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>introduction</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>routes异步路由</t>
-  </si>
-  <si>
-    <t>bottons</t>
+    <t>updatetime</t>
+  </si>
+  <si>
+    <t>数据库生成</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>routes[]异步路由</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>Acl</t>
+  </si>
+  <si>
+    <t>bottons[]</t>
+  </si>
+  <si>
+    <t>新闻管理</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>组件管理</t>
+  </si>
+  <si>
+    <t>Vcomponent</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>菜单管理</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>添加新闻</t>
+  </si>
+  <si>
+    <t>NewsAdd</t>
+  </si>
+  <si>
+    <t>新闻列表</t>
+  </si>
+  <si>
+    <t>NewsList</t>
+  </si>
+  <si>
+    <t>connectaid</t>
+  </si>
+  <si>
+    <t>1 2 3</t>
+  </si>
+  <si>
+    <t>表单</t>
+  </si>
+  <si>
+    <t>Vform</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>Vicon</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
+    <t>Vlist</t>
+  </si>
+  <si>
+    <t>表格</t>
+  </si>
+  <si>
+    <t>Vtable</t>
+  </si>
+  <si>
+    <t>分配权限</t>
+  </si>
+  <si>
+    <t>btn.Role.assgin</t>
+  </si>
+  <si>
+    <t>添加角色</t>
+  </si>
+  <si>
+    <t>btn.Role.add</t>
+  </si>
+  <si>
+    <t>修改角色</t>
+  </si>
+  <si>
+    <t>btn.Role.update</t>
+  </si>
+  <si>
+    <t>删除角色</t>
+  </si>
+  <si>
+    <t>btn.Role.delete</t>
+  </si>
+  <si>
+    <t>添加菜单</t>
+  </si>
+  <si>
+    <t>btn.Permission.add</t>
+  </si>
+  <si>
+    <t>修改菜单</t>
+  </si>
+  <si>
+    <t>btn.Permission.update</t>
+  </si>
+  <si>
+    <t>删除菜单</t>
+  </si>
+  <si>
+    <t>btn.Permission.remove</t>
+  </si>
+  <si>
+    <t>添加用户</t>
+  </si>
+  <si>
+    <t>btn.User.add</t>
+  </si>
+  <si>
+    <t>删除用户</t>
+  </si>
+  <si>
+    <t>btn.User.remove</t>
+  </si>
+  <si>
+    <t>修改用户</t>
+  </si>
+  <si>
+    <t>btn.User.update</t>
+  </si>
+  <si>
+    <t>分配角色</t>
+  </si>
+  <si>
+    <t>btn.User.assgin</t>
   </si>
 </sst>
 </file>
@@ -71,10 +269,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -224,12 +428,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -544,73 +778,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,64 +838,103 @@
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -989,68 +1247,603 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="7" width="15.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="3" width="15.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="3.33333333333333" style="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.4444444444444" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="14.4444444444444" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="J9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="7:12">
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="6">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="7:12">
+      <c r="G13" s="3"/>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="7:12">
+      <c r="G14" s="3"/>
+      <c r="H14" s="5">
+        <v>101</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="7:12">
+      <c r="G15" s="3"/>
+      <c r="H15" s="5">
+        <v>102</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="7:12">
+      <c r="G16" s="3"/>
+      <c r="H16" s="5">
+        <v>103</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8">
+        <v>201</v>
+      </c>
+      <c r="I17" s="8">
+        <v>2</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8">
+        <v>202</v>
+      </c>
+      <c r="I18" s="8">
+        <v>2</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="7">
+        <v>301</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:12">
+      <c r="G20" s="3"/>
+      <c r="H20" s="7">
+        <v>302</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="7:12">
+      <c r="G21" s="3"/>
+      <c r="H21" s="7">
+        <v>303</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="7:12">
+      <c r="G22" s="3"/>
+      <c r="H22" s="7">
+        <v>304</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="7:12">
+      <c r="G23" s="3"/>
+      <c r="H23" s="5">
+        <v>10101</v>
+      </c>
+      <c r="I23" s="5">
+        <v>101</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="7:12">
+      <c r="G24" s="3"/>
+      <c r="H24" s="5">
+        <v>10102</v>
+      </c>
+      <c r="I24" s="5">
+        <v>101</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="7:12">
+      <c r="G25" s="3"/>
+      <c r="H25" s="5">
+        <v>10103</v>
+      </c>
+      <c r="I25" s="5">
+        <v>101</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="7:12">
+      <c r="G26" s="3"/>
+      <c r="H26" s="5">
+        <v>10104</v>
+      </c>
+      <c r="I26" s="5">
+        <v>101</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="7:12">
+      <c r="G27" s="3"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="7:12">
+      <c r="G28" s="3"/>
+      <c r="H28" s="5">
+        <v>10201</v>
+      </c>
+      <c r="I28" s="5">
+        <v>102</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="7:12">
+      <c r="G29" s="3"/>
+      <c r="H29" s="5">
+        <v>10202</v>
+      </c>
+      <c r="I29" s="5">
+        <v>102</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="7:12">
+      <c r="G30" s="3"/>
+      <c r="H30" s="5">
+        <v>10203</v>
+      </c>
+      <c r="I30" s="5">
+        <v>102</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="7:12">
+      <c r="G32" s="3"/>
+      <c r="H32" s="5">
+        <v>10301</v>
+      </c>
+      <c r="I32" s="5">
+        <v>103</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12">
+      <c r="G33" s="3"/>
+      <c r="H33" s="5">
+        <v>10302</v>
+      </c>
+      <c r="I33" s="5">
+        <v>103</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12">
+      <c r="G34" s="3"/>
+      <c r="H34" s="5">
+        <v>10303</v>
+      </c>
+      <c r="I34" s="5">
+        <v>103</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L34" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12">
+      <c r="H35" s="5">
+        <v>10304</v>
+      </c>
+      <c r="I35" s="5">
+        <v>103</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L35" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G10:G34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/数据库表格.xlsx
+++ b/数据库表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22176" windowHeight="9780"/>
+    <workbookView windowWidth="13944" windowHeight="8292"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
   <si>
     <t>用户 登录成功</t>
   </si>
@@ -49,114 +49,117 @@
     <t>username</t>
   </si>
   <si>
+    <t>rid</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>厨师/前端</t>
+  </si>
+  <si>
+    <t>全部数据</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>null(前端路由)</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>树的级别</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>updateTime</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>roleName:[]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>updatetime</t>
+  </si>
+  <si>
+    <t>数据库生成</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>routes[]异步路由</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>Acl</t>
+  </si>
+  <si>
+    <t>bottons[]</t>
+  </si>
+  <si>
+    <t>新闻管理</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>组件管理</t>
+  </si>
+  <si>
+    <t>Vcomponent</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>菜单管理</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>添加新闻</t>
+  </si>
+  <si>
+    <t>NewsAdd</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
-    <t>pid</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>厨师/前端</t>
-  </si>
-  <si>
-    <t>全部数据</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>null(前端路由)</t>
-  </si>
-  <si>
-    <t>introduction</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>树的级别</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>updateTime</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>roleName:[]</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>updatetime</t>
-  </si>
-  <si>
-    <t>数据库生成</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>routes[]异步路由</t>
-  </si>
-  <si>
-    <t>权限管理</t>
-  </si>
-  <si>
-    <t>Acl</t>
-  </si>
-  <si>
-    <t>bottons[]</t>
-  </si>
-  <si>
-    <t>新闻管理</t>
-  </si>
-  <si>
-    <t>News</t>
-  </si>
-  <si>
-    <t>组件管理</t>
-  </si>
-  <si>
-    <t>Vcomponent</t>
-  </si>
-  <si>
-    <t>角色管理</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>菜单管理</t>
-  </si>
-  <si>
-    <t>Permission</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>添加新闻</t>
-  </si>
-  <si>
-    <t>NewsAdd</t>
-  </si>
-  <si>
     <t>新闻列表</t>
   </si>
   <si>
@@ -211,12 +214,21 @@
     <t>btn.Role.update</t>
   </si>
   <si>
+    <t>角色1-权限表</t>
+  </si>
+  <si>
     <t>删除角色</t>
   </si>
   <si>
     <t>btn.Role.delete</t>
   </si>
   <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>{1,2,3} (aid1)</t>
+  </si>
+  <si>
     <t>添加菜单</t>
   </si>
   <si>
@@ -257,6 +269,30 @@
   </si>
   <si>
     <t>btn.User.assgin</t>
+  </si>
+  <si>
+    <t>btn.News.add</t>
+  </si>
+  <si>
+    <t>修改新闻</t>
+  </si>
+  <si>
+    <t>btn.News.edit</t>
+  </si>
+  <si>
+    <t>删除新闻</t>
+  </si>
+  <si>
+    <t>btn.News.delete</t>
+  </si>
+  <si>
+    <t>所有的level3的 才会被选择，那么怎么和角色对应上呢</t>
+  </si>
+  <si>
+    <t>db.find(level:4) 成为一个数组</t>
+  </si>
+  <si>
+    <t>角色权限表中也有数组，</t>
   </si>
 </sst>
 </file>
@@ -908,8 +944,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -934,6 +973,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1247,25 +1295,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="E21" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="3" width="15.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="3.33333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33333333333333" style="2" customWidth="1"/>
     <col min="5" max="6" width="15.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.4444444444444" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="14.4444444444444" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2"/>
+    <col min="7" max="7" width="7.66666666666667" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.4444444444444" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="14.4444444444444" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1319,6 +1367,7 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5"/>
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -1354,45 +1403,45 @@
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="7:12">
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>-1</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1400,20 +1449,20 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5">
+      <c r="G11" s="4"/>
+      <c r="H11" s="6">
         <v>1</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>0</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1421,92 +1470,92 @@
       <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6">
+      <c r="G12" s="4"/>
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="7:12">
-      <c r="G13" s="3"/>
-      <c r="H13" s="7">
+      <c r="G13" s="4"/>
+      <c r="H13" s="8">
         <v>3</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>0</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="7:12">
-      <c r="G14" s="3"/>
-      <c r="H14" s="5">
+      <c r="G14" s="4"/>
+      <c r="H14" s="6">
         <v>101</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="7:12">
-      <c r="G15" s="3"/>
-      <c r="H15" s="5">
+      <c r="G15" s="4"/>
+      <c r="H15" s="6">
         <v>102</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>1</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="7:12">
-      <c r="G16" s="3"/>
-      <c r="H16" s="5">
+      <c r="G16" s="4"/>
+      <c r="H16" s="6">
         <v>103</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <v>1</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1514,330 +1563,419 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="8">
+      <c r="G17" s="4"/>
+      <c r="H17" s="9">
         <v>201</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="9">
         <v>2</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="8">
+        <v>42</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="9">
         <v>202</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="9">
         <v>2</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="8" t="s">
+      <c r="J18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="8">
+      <c r="K18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="7">
+        <v>46</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="8">
         <v>301</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="8">
         <v>3</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="J19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="7">
+      <c r="K19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="7:12">
-      <c r="G20" s="3"/>
-      <c r="H20" s="7">
+      <c r="G20" s="4"/>
+      <c r="H20" s="8">
         <v>302</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="8">
         <v>3</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="J20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="7">
+      <c r="K20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="7:12">
-      <c r="G21" s="3"/>
-      <c r="H21" s="7">
+      <c r="G21" s="4"/>
+      <c r="H21" s="8">
         <v>303</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="8">
         <v>3</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="7" t="s">
+      <c r="J21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="7">
+      <c r="K21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="7:12">
-      <c r="G22" s="3"/>
-      <c r="H22" s="7">
+      <c r="G22" s="4"/>
+      <c r="H22" s="8">
         <v>304</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="8">
         <v>3</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="J22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="7">
+      <c r="K22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="7:12">
-      <c r="G23" s="3"/>
-      <c r="H23" s="5">
+      <c r="G23" s="4"/>
+      <c r="H23" s="6">
         <v>10101</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="6">
         <v>101</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="J23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="5">
+      <c r="K23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="7:12">
-      <c r="G24" s="3"/>
-      <c r="H24" s="5">
+      <c r="G24" s="4"/>
+      <c r="H24" s="6">
         <v>10102</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="6">
         <v>101</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="5" t="s">
+      <c r="J24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="5">
+      <c r="K24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="7:12">
-      <c r="G25" s="3"/>
-      <c r="H25" s="5">
+      <c r="G25" s="4"/>
+      <c r="H25" s="6">
         <v>10103</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="6">
         <v>101</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25" s="5" t="s">
+      <c r="J25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L25" s="5">
+      <c r="K25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="7:12">
-      <c r="G26" s="3"/>
-      <c r="H26" s="5">
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6">
         <v>10104</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="6">
         <v>101</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="5">
+      <c r="J26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="7:12">
-      <c r="G27" s="3"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5">
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="7:12">
-      <c r="G28" s="3"/>
-      <c r="H28" s="5">
+    <row r="28" spans="2:12">
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="6">
         <v>10201</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="6">
         <v>102</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L28" s="5">
+      <c r="J28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="7:12">
-      <c r="G29" s="3"/>
-      <c r="H29" s="5">
+      <c r="G29" s="4"/>
+      <c r="H29" s="6">
         <v>10202</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="6">
         <v>102</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29" s="5">
+      <c r="J29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="7:12">
-      <c r="G30" s="3"/>
-      <c r="H30" s="5">
+      <c r="G30" s="4"/>
+      <c r="H30" s="6">
         <v>10203</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="6">
         <v>102</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="J30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="3"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="7:12">
-      <c r="G32" s="3"/>
-      <c r="H32" s="5">
+      <c r="G32" s="4"/>
+      <c r="H32" s="6">
         <v>10301</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="6">
         <v>103</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L32" s="5">
+      <c r="J32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="7:12">
-      <c r="G33" s="3"/>
-      <c r="H33" s="5">
+      <c r="G33" s="4"/>
+      <c r="H33" s="6">
         <v>10302</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="6">
         <v>103</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L33" s="5">
+      <c r="J33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="7:12">
-      <c r="G34" s="3"/>
-      <c r="H34" s="5">
+      <c r="G34" s="4"/>
+      <c r="H34" s="6">
         <v>10303</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="6">
         <v>103</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L34" s="5">
+      <c r="J34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="8:12">
-      <c r="H35" s="5">
+      <c r="H35" s="6">
         <v>10304</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="6">
         <v>103</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L35" s="5">
+      <c r="J35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" s="6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="8:12">
+      <c r="H37" s="7">
+        <v>20101</v>
+      </c>
+      <c r="I37" s="7">
+        <v>201</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L37" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="4:14">
+      <c r="D38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="8:12">
+      <c r="H39" s="7">
+        <v>20201</v>
+      </c>
+      <c r="I39" s="7">
+        <v>202</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L39" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="8:12">
+      <c r="H40" s="7">
+        <v>20202</v>
+      </c>
+      <c r="I40" s="7">
+        <v>202</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L40" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11">
+      <c r="K50" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11">
+      <c r="K51" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11">
+      <c r="K52" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
